--- a/_protected/Lista invitadoa para tarjeta digital - Cena Walter y Alejandra.xlsx
+++ b/_protected/Lista invitadoa para tarjeta digital - Cena Walter y Alejandra.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\boda2\_protected\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1080" yWindow="615" windowWidth="18960" windowHeight="7440"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Invitados!$A$2:$D$236</definedName>
   </definedNames>
-  <calcPr calcId="125725" calcOnSave="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1712,8 +1717,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1778,6 +1783,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1824,7 +1837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1856,9 +1869,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1890,6 +1904,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2065,21 +2080,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2115,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2142,7 +2157,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2163,7 +2178,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2226,7 +2241,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2247,7 +2262,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2268,7 +2283,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2331,7 +2346,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2352,7 +2367,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2373,7 +2388,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2478,7 +2493,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2541,7 +2556,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2604,7 +2619,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2625,7 +2640,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2646,7 +2661,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2709,7 +2724,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2751,7 +2766,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2772,7 +2787,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2793,7 +2808,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2814,7 +2829,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2835,7 +2850,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2856,7 +2871,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2877,7 +2892,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2898,7 +2913,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2940,7 +2955,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2961,7 +2976,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2982,7 +2997,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3003,7 +3018,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3024,7 +3039,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3045,7 +3060,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3066,7 +3081,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3087,7 +3102,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3129,7 +3144,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3171,7 +3186,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3192,7 +3207,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3213,7 +3228,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3234,7 +3249,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3276,7 +3291,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3297,7 +3312,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3318,7 +3333,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3339,7 +3354,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3402,7 +3417,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3423,7 +3438,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3444,7 +3459,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3465,7 +3480,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3486,7 +3501,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3507,7 +3522,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3528,7 +3543,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3549,7 +3564,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3591,7 +3606,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3612,7 +3627,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3654,7 +3669,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3675,7 +3690,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3717,7 +3732,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15">
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3801,7 +3816,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3821,7 +3836,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3841,7 +3856,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3861,7 +3876,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3881,7 +3896,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3921,7 +3936,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3941,7 +3956,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15">
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3961,7 +3976,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15">
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3981,7 +3996,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15">
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15">
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4021,7 +4036,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4041,7 +4056,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4061,7 +4076,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15">
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15">
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4101,7 +4116,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15">
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4121,7 +4136,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15">
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4141,7 +4156,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15">
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4161,7 +4176,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4181,7 +4196,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15">
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4201,7 +4216,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15">
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4221,7 +4236,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15">
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4241,7 +4256,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15">
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4261,7 +4276,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15">
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4281,7 +4296,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15">
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4301,7 +4316,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15">
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4321,7 +4336,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15">
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4341,7 +4356,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15">
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4361,7 +4376,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4381,7 +4396,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15">
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4401,7 +4416,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4421,7 +4436,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15">
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4441,7 +4456,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15">
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4461,7 +4476,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4481,7 +4496,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15">
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4501,7 +4516,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4521,7 +4536,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15">
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4541,7 +4556,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4561,7 +4576,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4581,7 +4596,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15">
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4601,7 +4616,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4621,7 +4636,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15">
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4641,7 +4656,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4661,7 +4676,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15">
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4681,7 +4696,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15">
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4701,7 +4716,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15">
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4721,7 +4736,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15">
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4741,7 +4756,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15">
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4761,7 +4776,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15">
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15">
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4801,7 +4816,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15">
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4821,7 +4836,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15">
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4841,7 +4856,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15">
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4861,7 +4876,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15">
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15">
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4901,7 +4916,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15">
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4921,7 +4936,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15">
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4941,7 +4956,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15">
+    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4961,7 +4976,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15">
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4981,7 +4996,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15">
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5001,7 +5016,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15">
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5021,7 +5036,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15">
+    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15">
+    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5061,7 +5076,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15">
+    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5081,7 +5096,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15">
+    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5101,7 +5116,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15">
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5121,7 +5136,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15">
+    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15">
+    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5161,7 +5176,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15">
+    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5181,7 +5196,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15">
+    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5201,7 +5216,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15">
+    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5221,7 +5236,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15">
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5241,7 +5256,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15">
+    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5261,7 +5276,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15">
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5281,7 +5296,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15">
+    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5301,7 +5316,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15">
+    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5321,7 +5336,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15">
+    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5341,7 +5356,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15">
+    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5361,7 +5376,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15">
+    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5381,7 +5396,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15">
+    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5401,7 +5416,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15">
+    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5421,7 +5436,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15">
+    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5441,7 +5456,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15">
+    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5461,7 +5476,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15">
+    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5481,7 +5496,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15">
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5501,7 +5516,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15">
+    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5521,7 +5536,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15">
+    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5541,7 +5556,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15">
+    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5561,7 +5576,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15">
+    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5581,7 +5596,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15">
+    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15">
+    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5621,7 +5636,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15">
+    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5641,7 +5656,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15">
+    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5661,7 +5676,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15">
+    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5681,7 +5696,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15">
+    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5701,7 +5716,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15">
+    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5721,7 +5736,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15">
+    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5741,7 +5756,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15">
+    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5761,7 +5776,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15">
+    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5781,7 +5796,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15">
+    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5801,7 +5816,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15">
+    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5821,7 +5836,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15">
+    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5841,7 +5856,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15">
+    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5861,7 +5876,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15">
+    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5881,7 +5896,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15">
+    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5901,7 +5916,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15">
+    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5921,7 +5936,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15">
+    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5941,7 +5956,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15">
+    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5961,7 +5976,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15">
+    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5981,7 +5996,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15">
+    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6001,7 +6016,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15">
+    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6021,7 +6036,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15">
+    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6041,7 +6056,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15">
+    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6061,7 +6076,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15">
+    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6081,7 +6096,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15">
+    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6101,7 +6116,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15">
+    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6121,7 +6136,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15">
+    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6141,7 +6156,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15">
+    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6161,7 +6176,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15">
+    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6181,7 +6196,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15">
+    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6201,7 +6216,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15">
+    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6221,7 +6236,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15">
+    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6241,7 +6256,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15">
+    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6261,7 +6276,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15">
+    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6281,7 +6296,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15">
+    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6301,7 +6316,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15">
+    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15">
+    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6341,7 +6356,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15">
+    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6361,7 +6376,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15">
+    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6381,7 +6396,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15">
+    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6401,7 +6416,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15">
+    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6421,7 +6436,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15">
+    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6441,7 +6456,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15">
+    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6461,7 +6476,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15">
+    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6481,7 +6496,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15">
+    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6501,7 +6516,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15">
+    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6521,7 +6536,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15">
+    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6541,7 +6556,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15">
+    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6561,7 +6576,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15">
+    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6581,7 +6596,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15">
+    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6601,7 +6616,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15">
+    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6621,7 +6636,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15">
+    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6641,7 +6656,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15">
+    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15">
+    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6681,7 +6696,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15">
+    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6701,7 +6716,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15">
+    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6721,7 +6736,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15">
+    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6741,7 +6756,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15">
+    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6761,7 +6776,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15">
+    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6781,7 +6796,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15">
+    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6801,7 +6816,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15">
+    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6821,7 +6836,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15">
+    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15">
+    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6868,12 +6883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
